--- a/regression-results/Regression-table.xlsx
+++ b/regression-results/Regression-table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sifaat\FFC-Forecasting-Study\forecasting-study\regression-results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D1C5E9B-336F-4146-9A12-C5FF5B53D86D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{674DF835-420E-4099-AA93-352E0449B4FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -122,10 +122,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
-    <numFmt numFmtId="168" formatCode="0.000"/>
-    <numFmt numFmtId="169" formatCode="0.0000"/>
-    <numFmt numFmtId="170" formatCode="0.0"/>
-    <numFmt numFmtId="172" formatCode="0.000000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
+    <numFmt numFmtId="166" formatCode="0.0"/>
+    <numFmt numFmtId="167" formatCode="0.000000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -163,19 +163,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -456,10 +453,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{326130C5-0562-48AA-9514-354D19C603CB}">
-  <dimension ref="A1:K22"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -472,7 +469,7 @@
     <col min="8" max="8" width="9.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>20</v>
       </c>
@@ -498,297 +495,261 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="4">
         <v>-2915.44</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="2">
         <v>-1.3541849999999999E-2</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2" s="4">
         <v>16.25111003</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E2" s="4">
         <v>103.3694936</v>
       </c>
-      <c r="F2" s="6">
+      <c r="F2" s="4">
         <v>75.396635810000006</v>
       </c>
-      <c r="G2" s="9">
+      <c r="G2" s="6">
         <v>-9.1130000000000003E-5</v>
       </c>
-      <c r="H2" s="6">
+      <c r="H2" s="4">
         <v>5.3950910600000004</v>
       </c>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="4">
         <v>2217.4258603600001</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="2">
         <v>4.9074799999999997E-3</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="4">
         <v>13.68300412</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="4">
         <v>92.064107320000005</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F3" s="4">
         <v>20.2250774</v>
       </c>
-      <c r="G3" s="9">
+      <c r="G3" s="6">
         <v>3.5723999999999999E-4</v>
       </c>
-      <c r="H3" s="6">
+      <c r="H3" s="4">
         <v>2.7128074099999999</v>
       </c>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="4">
         <v>-1.3149999999999999</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="4">
         <v>-2.7589999999999999</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="4">
         <v>1.1879999999999999</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="4">
         <v>1.123</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F4" s="4">
         <v>3.7280000000000002</v>
       </c>
-      <c r="G4" s="6">
+      <c r="G4" s="4">
         <v>-0.255</v>
       </c>
-      <c r="H4" s="6">
+      <c r="H4" s="4">
         <v>1.9890000000000001</v>
       </c>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="4">
         <v>0.20211999999999999</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="2">
         <v>1.1440000000000001E-2</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="4">
         <v>0.24762000000000001</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="4">
         <v>0.27362999999999998</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="3">
         <v>1.17E-3</v>
       </c>
-      <c r="G5" s="6">
+      <c r="G5" s="4">
         <v>0.80101999999999995</v>
       </c>
-      <c r="H5" s="6">
+      <c r="H5" s="4">
         <v>5.9310000000000002E-2</v>
       </c>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="7">
+      <c r="B8" s="4"/>
+      <c r="C8" s="5">
         <v>25260.869569999999</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D8" s="5">
         <v>133.78</v>
       </c>
-      <c r="E8" s="8">
+      <c r="E8" s="5">
         <v>23.01</v>
       </c>
-      <c r="F8" s="8">
+      <c r="F8" s="5">
         <v>16.648929800000001</v>
       </c>
-      <c r="G8" s="8">
+      <c r="G8" s="5">
         <v>211561</v>
       </c>
-      <c r="H8" s="8">
+      <c r="H8" s="5">
         <v>45.750175400000003</v>
       </c>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="8">
+      <c r="B9" s="4"/>
+      <c r="C9" s="5">
         <v>28627.372567070001</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D9" s="5">
         <v>4.3487205800000002</v>
       </c>
-      <c r="E9" s="8">
+      <c r="E9" s="5">
         <v>0.67129057000000003</v>
       </c>
-      <c r="F9" s="8">
+      <c r="F9" s="5">
         <v>7.8548224500000003</v>
       </c>
-      <c r="G9" s="8">
+      <c r="G9" s="5">
         <v>441331.52875244</v>
       </c>
-      <c r="H9" s="8">
+      <c r="H9" s="5">
         <v>65.450477980000002</v>
       </c>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="6">
+      <c r="B12" s="4"/>
+      <c r="C12" s="4">
         <v>0.89949999999999997</v>
       </c>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="5"/>
-      <c r="C13" s="6">
+      <c r="B13" s="4"/>
+      <c r="C13" s="4">
         <v>0.87209999999999999</v>
       </c>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="1" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="1" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="1" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="1" t="s">
         <v>28</v>
       </c>
     </row>
@@ -799,7 +760,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13CA9C74-857E-44B5-B866-D08E3AF468BA}">
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A29" sqref="A29"/>
@@ -810,7 +771,7 @@
     <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -833,159 +794,60 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1042,71 +904,26 @@
       <c r="A2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -1115,114 +932,76 @@
       <c r="C7">
         <v>25260.869569999999</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7">
         <v>133.78</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7">
         <v>23.01</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7">
         <v>16.648929800000001</v>
       </c>
-      <c r="G7" s="1">
+      <c r="G7">
         <v>211561</v>
       </c>
-      <c r="H7" s="1">
+      <c r="H7">
         <v>45.750175400000003</v>
       </c>
-      <c r="I7" s="1">
+      <c r="I7">
         <v>0.37596190000000002</v>
       </c>
-      <c r="J7" s="1">
+      <c r="J7">
         <v>0.97050139999999996</v>
       </c>
-      <c r="K7" s="1"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8">
         <v>28627.372567070001</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8">
         <v>4.3487205800000002</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8">
         <v>0.67129057000000003</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F8">
         <v>7.8548224500000003</v>
       </c>
-      <c r="G8" s="1">
+      <c r="G8">
         <v>441331.52875244</v>
       </c>
-      <c r="H8" s="1">
+      <c r="H8">
         <v>65.450477980000002</v>
       </c>
-      <c r="I8" s="1">
+      <c r="I8">
         <v>8.0331959999999994E-2</v>
       </c>
-      <c r="J8" s="1">
+      <c r="J8">
         <v>0.15834402</v>
       </c>
-      <c r="K8" s="1"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1275,155 +1054,56 @@
       <c r="A2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/regression-results/Regression-table.xlsx
+++ b/regression-results/Regression-table.xlsx
@@ -8,16 +8,25 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sifaat\FFC-Forecasting-Study\forecasting-study\regression-results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{674DF835-420E-4099-AA93-352E0449B4FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6576D08-B0D5-4BF4-8EF6-2AF65D9CEE74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="6 vars-Normal" sheetId="3" r:id="rId1"/>
     <sheet name="6 vars-Normal-Log-Form" sheetId="4" r:id="rId2"/>
     <sheet name="8 vars-Normal" sheetId="2" r:id="rId3"/>
-    <sheet name="8 vars-Log-Form" sheetId="1" r:id="rId4"/>
+    <sheet name="7 vars-Log-Form" sheetId="1" r:id="rId4"/>
+    <sheet name="Correlation-nom-vars" sheetId="6" r:id="rId5"/>
+    <sheet name="Correlation-log-vars" sheetId="5" r:id="rId6"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'6 vars-Normal'!$A:$I</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">'7 vars-Log-Form'!$A:$K</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'8 vars-Normal'!$A:$K</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="5">'Correlation-log-vars'!$A:$J</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">'Correlation-nom-vars'!$A:$K</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -28,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="72">
   <si>
     <t>X1</t>
   </si>
@@ -99,35 +108,165 @@
     <t>Multiple R2</t>
   </si>
   <si>
-    <t>x1 = Price of Nitrogen</t>
-  </si>
-  <si>
-    <t>x2 = Water Avaialability</t>
-  </si>
-  <si>
-    <t>x3 = Cropped Accreage</t>
-  </si>
-  <si>
-    <t>x4 = Lag Agric GDP Bn USD</t>
-  </si>
-  <si>
-    <t>x5 = Agric Credit</t>
-  </si>
-  <si>
-    <t>x6 = Tech Proxy</t>
+    <t>VIF</t>
+  </si>
+  <si>
+    <t>Water Avaialability</t>
+  </si>
+  <si>
+    <t>Cropped Accreage</t>
+  </si>
+  <si>
+    <t>Lag Agric GDP Bn USD</t>
+  </si>
+  <si>
+    <t>Agric Credit</t>
+  </si>
+  <si>
+    <t>Tech Proxy</t>
+  </si>
+  <si>
+    <t>Nitrogen Price per ton</t>
+  </si>
+  <si>
+    <t>Inp Out Ratio</t>
+  </si>
+  <si>
+    <t>N / P Ratio</t>
+  </si>
+  <si>
+    <t>lg_Nitrogen Price per ton</t>
+  </si>
+  <si>
+    <t>lg_Water Avaialability</t>
+  </si>
+  <si>
+    <t>lg_Cropped Accreage</t>
+  </si>
+  <si>
+    <t>lg_Lag Agric GDP Bn USD</t>
+  </si>
+  <si>
+    <t>lg_Agric Credit</t>
+  </si>
+  <si>
+    <t>lg_Tech Proxy</t>
+  </si>
+  <si>
+    <t>F-statistic: 55.22 on 6 and 22 DF</t>
+  </si>
+  <si>
+    <t>p-value: 0.00000000000378</t>
+  </si>
+  <si>
+    <t>F-statistic: 32.81 on 6 and 22 DF</t>
+  </si>
+  <si>
+    <t>p-value: 0.0000000006813</t>
+  </si>
+  <si>
+    <t>F-statistic: 23.91 on 8 and 20 DF</t>
+  </si>
+  <si>
+    <t>p-value: 0.00000001262</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>lg_nit_price_per_ton</t>
+  </si>
+  <si>
+    <t>lg_water_maf</t>
+  </si>
+  <si>
+    <t>lg_cr_area_mn_hec</t>
+  </si>
+  <si>
+    <t>lag_lg_agric_gdp_usd_bn_cy</t>
+  </si>
+  <si>
+    <t>lg_credit_dis_rs_mn</t>
+  </si>
+  <si>
+    <t>lg_tech_proxy</t>
+  </si>
+  <si>
+    <t>lg_inp_out_ratio</t>
+  </si>
+  <si>
+    <t>lg_n_p_ratio</t>
+  </si>
+  <si>
+    <t>nit_price_per_ton</t>
+  </si>
+  <si>
+    <t>water_maf</t>
+  </si>
+  <si>
+    <t>cr_area_mn_hec</t>
+  </si>
+  <si>
+    <t>lag_agric_gdp_usd_bn_cy</t>
+  </si>
+  <si>
+    <t>credit_dis_rs_mn</t>
+  </si>
+  <si>
+    <t>inp_out_ratio</t>
+  </si>
+  <si>
+    <t>n_p_ratio</t>
+  </si>
+  <si>
+    <t>tech_proxy</t>
+  </si>
+  <si>
+    <t>lg_Inp Out Ratio</t>
+  </si>
+  <si>
+    <t>lg_N / P Ratio</t>
+  </si>
+  <si>
+    <t>Dropped</t>
+  </si>
+  <si>
+    <t>p-value: 0.00000000002895</t>
+  </si>
+  <si>
+    <t>F-statistic:  45.3 on 7 and 21 DF</t>
+  </si>
+  <si>
+    <t>Linear Regression for Six Variables</t>
+  </si>
+  <si>
+    <t>Log - Linear Regression for Six Variables</t>
+  </si>
+  <si>
+    <t>Linear Regression for Eight Variables</t>
+  </si>
+  <si>
+    <t>Linear Regression for Seven Variables</t>
+  </si>
+  <si>
+    <t>Nominal Value Correlation Table</t>
+  </si>
+  <si>
+    <t>Log Transformed Value Correlation Table</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
     <numFmt numFmtId="166" formatCode="0.0"/>
     <numFmt numFmtId="167" formatCode="0.000000"/>
+    <numFmt numFmtId="172" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -142,16 +281,61 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3B3B3B"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCCCB"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -159,11 +343,72 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFD3D3D3"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color rgb="FFD3D3D3"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FFD3D3D3"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color rgb="FFD3D3D3"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FFD3D3D3"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFD3D3D3"/>
+      </right>
+      <top style="thick">
+        <color rgb="FFD3D3D3"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FFD3D3D3"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFD3D3D3"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFD3D3D3"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFD3D3D3"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFD3D3D3"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFD3D3D3"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -173,6 +418,47 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -453,659 +739,1979 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{326130C5-0562-48AA-9514-354D19C603CB}">
-  <dimension ref="A1:I22"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.33203125" customWidth="1"/>
-    <col min="3" max="3" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5703125" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.85546875" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B1" t="s">
+    <row r="1" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B1" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+    </row>
+    <row r="2" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="C2" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="19"/>
+      <c r="B3" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C3" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D3" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E3" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F3" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G3" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H3" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I3" s="19" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B4" s="4">
         <v>-2915.44</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C4" s="2">
         <v>-1.3541849999999999E-2</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D4" s="4">
         <v>16.25111003</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E4" s="4">
         <v>103.3694936</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F4" s="4">
         <v>75.396635810000006</v>
       </c>
-      <c r="G2" s="6">
+      <c r="G4" s="6">
         <v>-9.1130000000000003E-5</v>
       </c>
-      <c r="H2" s="4">
+      <c r="H4" s="4">
         <v>5.3950910600000004</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B5" s="4">
         <v>2217.4258603600001</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C5" s="2">
         <v>4.9074799999999997E-3</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D5" s="4">
         <v>13.68300412</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E5" s="4">
         <v>92.064107320000005</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F5" s="4">
         <v>20.2250774</v>
       </c>
-      <c r="G3" s="6">
+      <c r="G5" s="6">
         <v>3.5723999999999999E-4</v>
       </c>
-      <c r="H3" s="4">
+      <c r="H5" s="4">
         <v>2.7128074099999999</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B6" s="4">
         <v>-1.3149999999999999</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C6" s="4">
         <v>-2.7589999999999999</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D6" s="4">
         <v>1.1879999999999999</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E6" s="4">
         <v>1.123</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F6" s="4">
         <v>3.7280000000000002</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G6" s="4">
         <v>-0.255</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H6" s="4">
         <v>1.9890000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B7" s="4">
         <v>0.20211999999999999</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C7" s="2">
         <v>1.1440000000000001E-2</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D7" s="4">
         <v>0.24762000000000001</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E7" s="4">
         <v>0.27362999999999998</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F7" s="3">
         <v>1.17E-3</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G7" s="4">
         <v>0.80101999999999995</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H7" s="4">
         <v>5.9310000000000002E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="5">
+      <c r="B10" s="4"/>
+      <c r="C10" s="5">
         <v>25260.869569999999</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D10" s="5">
         <v>133.78</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E10" s="5">
         <v>23.01</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F10" s="5">
         <v>16.648929800000001</v>
       </c>
-      <c r="G8" s="5">
+      <c r="G10" s="5">
         <v>211561</v>
       </c>
-      <c r="H8" s="5">
+      <c r="H10" s="5">
         <v>45.750175400000003</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="5">
+      <c r="B11" s="4"/>
+      <c r="C11" s="5">
         <v>28627.372567070001</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D11" s="5">
         <v>4.3487205800000002</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E11" s="5">
         <v>0.67129057000000003</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F11" s="5">
         <v>7.8548224500000003</v>
       </c>
-      <c r="G9" s="5">
+      <c r="G11" s="5">
         <v>441331.52875244</v>
       </c>
-      <c r="H9" s="5">
+      <c r="H11" s="5">
         <v>65.450477980000002</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>22</v>
-      </c>
       <c r="B12" s="4"/>
-      <c r="C12" s="4">
-        <v>0.89949999999999997</v>
-      </c>
+      <c r="C12" s="4"/>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B13" s="4"/>
-      <c r="C13" s="4">
-        <v>0.87209999999999999</v>
-      </c>
+      <c r="C13" s="4"/>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B17" s="1" t="s">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4">
+        <v>0.89949999999999997</v>
+      </c>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4">
+        <v>0.87209999999999999</v>
+      </c>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B18" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B19" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B20" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B21" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B22" s="1" t="s">
-        <v>28</v>
+      <c r="C20" s="8">
+        <v>10.888798</v>
+      </c>
+      <c r="D20" s="4">
+        <v>1.953373</v>
+      </c>
+      <c r="E20" s="4">
+        <v>2.1071770000000001</v>
+      </c>
+      <c r="F20" s="8">
+        <v>13.923624999999999</v>
+      </c>
+      <c r="G20" s="8">
+        <v>13.713628</v>
+      </c>
+      <c r="H20" s="8">
+        <v>17.392530000000001</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:H1"/>
+  </mergeCells>
+  <printOptions horizontalCentered="1" verticalCentered="1" gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape" draft="1" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13CA9C74-857E-44B5-B866-D08E3AF468BA}">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13" customWidth="1"/>
+    <col min="5" max="5" width="10.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B1" t="s">
+    <row r="1" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B1" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+    </row>
+    <row r="2" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="C2" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="19"/>
+      <c r="B3" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D3" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E3" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F3" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G3" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H3" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I3" s="19" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="B4" s="4">
+        <v>6.4382700000000002</v>
+      </c>
+      <c r="C4" s="4">
+        <v>-0.22067000000000001</v>
+      </c>
+      <c r="D4" s="4">
+        <v>0.13023999999999999</v>
+      </c>
+      <c r="E4" s="4">
+        <v>0.40598000000000001</v>
+      </c>
+      <c r="F4" s="4">
+        <v>0.27956999999999999</v>
+      </c>
+      <c r="G4" s="4">
+        <v>2.8719999999999999E-2</v>
+      </c>
+      <c r="H4" s="4">
+        <v>0.18978</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="4">
+        <v>3.0976699999999999</v>
+      </c>
+      <c r="C5" s="4">
+        <v>7.5429999999999997E-2</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0.47843000000000002</v>
+      </c>
+      <c r="E5" s="4">
+        <v>0.70276000000000005</v>
+      </c>
+      <c r="F5" s="4">
+        <v>0.15004999999999999</v>
+      </c>
+      <c r="G5" s="4">
+        <v>5.5789999999999999E-2</v>
+      </c>
+      <c r="H5" s="4">
+        <v>7.6929999999999998E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="B6" s="4">
+        <v>2.0779999999999998</v>
+      </c>
+      <c r="C6" s="4">
+        <v>-2.9260000000000002</v>
+      </c>
+      <c r="D6" s="4">
+        <v>0.27200000000000002</v>
+      </c>
+      <c r="E6" s="4">
+        <v>0.57799999999999996</v>
+      </c>
+      <c r="F6" s="4">
+        <v>1.863</v>
+      </c>
+      <c r="G6" s="4">
+        <v>0.51500000000000001</v>
+      </c>
+      <c r="H6" s="4">
+        <v>2.4670000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="B7" s="4">
+        <v>4.9540000000000001E-2</v>
+      </c>
+      <c r="C7" s="4">
+        <v>7.8300000000000002E-3</v>
+      </c>
+      <c r="D7" s="4">
+        <v>0.78798999999999997</v>
+      </c>
+      <c r="E7" s="4">
+        <v>0.56933</v>
+      </c>
+      <c r="F7" s="4">
+        <v>7.5829999999999995E-2</v>
+      </c>
+      <c r="G7" s="4">
+        <v>0.61185</v>
+      </c>
+      <c r="H7" s="4">
+        <v>2.189E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="C10" s="4">
+        <v>10.1370118</v>
+      </c>
+      <c r="D10" s="4">
+        <v>4.8961967</v>
+      </c>
+      <c r="E10" s="4">
+        <v>3.1359289000000001</v>
+      </c>
+      <c r="F10" s="4">
+        <v>2.8123459</v>
+      </c>
+      <c r="G10" s="4">
+        <v>12.2622687</v>
+      </c>
+      <c r="H10" s="4">
+        <v>-2.9942400000000001E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="C11" s="4">
+        <v>0.76928872999999998</v>
+      </c>
+      <c r="D11" s="4">
+        <v>3.2674689999999999E-2</v>
+      </c>
+      <c r="E11" s="4">
+        <v>2.9203030000000001E-2</v>
+      </c>
+      <c r="F11" s="4">
+        <v>0.48294925999999999</v>
+      </c>
+      <c r="G11" s="4">
+        <v>1.4311327</v>
+      </c>
+      <c r="H11" s="4">
+        <v>0.17738045</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+      <c r="C14" s="4">
+        <v>0.93769999999999998</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>17</v>
       </c>
+      <c r="C15" s="4">
+        <v>0.92079999999999995</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" s="8">
+        <v>21.075633</v>
+      </c>
+      <c r="D21" s="4">
+        <v>1.529623</v>
+      </c>
+      <c r="E21" s="4">
+        <v>2.6363110000000001</v>
+      </c>
+      <c r="F21" s="8">
+        <v>32.869208</v>
+      </c>
+      <c r="G21" s="8">
+        <v>39.899258000000003</v>
+      </c>
+      <c r="H21" s="8">
+        <v>44.510818</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:H1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18F4022F-26AC-46F4-AE21-85FE3561092A}">
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:K28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.6640625" customWidth="1"/>
-    <col min="2" max="2" width="12.77734375" customWidth="1"/>
+    <col min="1" max="1" width="27.7109375" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B1" t="s">
+    <row r="1" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B1" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+    </row>
+    <row r="2" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="C2" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="19"/>
+      <c r="B3" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C3" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D3" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E3" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F3" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G3" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H3" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I3" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J3" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K3" s="19" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="B4" s="4">
+        <v>-1169.1837842299999</v>
+      </c>
+      <c r="C4" s="4">
+        <v>-2.7371220000000002E-2</v>
+      </c>
+      <c r="D4" s="4">
+        <v>10.24297904</v>
+      </c>
+      <c r="E4" s="4">
+        <v>119.69165377</v>
+      </c>
+      <c r="F4" s="4">
+        <v>77.724722</v>
+      </c>
+      <c r="G4" s="7">
+        <v>5.8709999999999999E-5</v>
+      </c>
+      <c r="H4" s="4">
+        <v>10.03874272</v>
+      </c>
+      <c r="I4" s="4">
+        <v>-1240.1390284300001</v>
+      </c>
+      <c r="J4" s="4">
+        <v>-42.618754549999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="4">
+        <v>3608.2980607099998</v>
+      </c>
+      <c r="C5" s="4">
+        <v>1.397749E-2</v>
+      </c>
+      <c r="D5" s="4">
+        <v>16.201449329999999</v>
+      </c>
+      <c r="E5" s="4">
+        <v>103.40178023999999</v>
+      </c>
+      <c r="F5" s="4">
+        <v>21.94427349</v>
+      </c>
+      <c r="G5" s="7">
+        <v>4.4623999999999998E-4</v>
+      </c>
+      <c r="H5" s="4">
+        <v>5.6540635899999998</v>
+      </c>
+      <c r="I5" s="4">
+        <v>1115.52854282</v>
+      </c>
+      <c r="J5" s="4">
+        <v>1183.3762295500001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="B6" s="4">
+        <v>-0.32400000000000001</v>
+      </c>
+      <c r="C6" s="4">
+        <v>-1.958</v>
+      </c>
+      <c r="D6" s="4">
+        <v>0.63200000000000001</v>
+      </c>
+      <c r="E6" s="4">
+        <v>1.1579999999999999</v>
+      </c>
+      <c r="F6" s="4">
+        <v>3.5419999999999998</v>
+      </c>
+      <c r="G6" s="4">
+        <v>0.13200000000000001</v>
+      </c>
+      <c r="H6" s="4">
+        <v>1.7749999999999999</v>
+      </c>
+      <c r="I6" s="4">
+        <v>-1.1120000000000001</v>
+      </c>
+      <c r="J6" s="2">
+        <v>-3.5999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="B7" s="4">
+        <v>0.74927999999999995</v>
+      </c>
+      <c r="C7" s="4">
+        <v>6.4299999999999996E-2</v>
+      </c>
+      <c r="D7" s="4">
+        <v>0.53439999999999999</v>
+      </c>
+      <c r="E7" s="4">
+        <v>0.26068999999999998</v>
+      </c>
+      <c r="F7" s="3">
+        <v>2.0500000000000002E-3</v>
+      </c>
+      <c r="G7" s="4">
+        <v>0.89664999999999995</v>
+      </c>
+      <c r="H7" s="2">
+        <v>9.1039999999999996E-2</v>
+      </c>
+      <c r="I7" s="4">
+        <v>0.27944999999999998</v>
+      </c>
+      <c r="J7" s="4">
+        <v>0.97162999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>18</v>
       </c>
-      <c r="C7">
+      <c r="C10" s="10">
         <v>25260.869569999999</v>
       </c>
-      <c r="D7">
+      <c r="D10" s="4">
         <v>133.78</v>
       </c>
-      <c r="E7">
+      <c r="E10" s="4">
         <v>23.01</v>
       </c>
-      <c r="F7">
+      <c r="F10" s="4">
         <v>16.648929800000001</v>
       </c>
-      <c r="G7">
+      <c r="G10" s="10">
         <v>211561</v>
       </c>
-      <c r="H7">
+      <c r="H10" s="4">
         <v>45.750175400000003</v>
       </c>
-      <c r="I7">
+      <c r="I10" s="4">
         <v>0.37596190000000002</v>
       </c>
-      <c r="J7">
+      <c r="J10" s="4">
         <v>0.97050139999999996</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>19</v>
       </c>
-      <c r="C8">
+      <c r="C11" s="10">
         <v>28627.372567070001</v>
       </c>
-      <c r="D8">
+      <c r="D11" s="4">
         <v>4.3487205800000002</v>
       </c>
-      <c r="E8">
+      <c r="E11" s="4">
         <v>0.67129057000000003</v>
       </c>
-      <c r="F8">
+      <c r="F11" s="4">
         <v>7.8548224500000003</v>
       </c>
-      <c r="G8">
+      <c r="G11" s="10">
         <v>441331.52875244</v>
       </c>
-      <c r="H8">
+      <c r="H11" s="4">
         <v>65.450477980000002</v>
       </c>
-      <c r="I8">
+      <c r="I11" s="4">
         <v>8.0331959999999994E-2</v>
       </c>
-      <c r="J8">
+      <c r="J11" s="4">
         <v>0.15834402</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="4">
+        <v>0.90529999999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>17</v>
       </c>
+      <c r="C15" s="4">
+        <v>0.86750000000000005</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" s="21">
+        <v>85.279392999999999</v>
+      </c>
+      <c r="D21" s="22">
+        <v>2.6439520000000001</v>
+      </c>
+      <c r="E21" s="22">
+        <v>2.5662560000000001</v>
+      </c>
+      <c r="F21" s="23">
+        <v>15.824790999999999</v>
+      </c>
+      <c r="G21" s="23">
+        <v>20.658206</v>
+      </c>
+      <c r="H21" s="23">
+        <v>72.940685999999999</v>
+      </c>
+      <c r="I21" s="23">
+        <v>16.618335999999999</v>
+      </c>
+      <c r="J21" s="22">
+        <v>4.813326</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C22" s="1"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C23" s="1"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C24" s="1"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C25" s="1"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C26" s="1"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C27" s="1"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C28" s="1"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:J1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:J12"/>
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.6640625" customWidth="1"/>
+    <col min="1" max="1" width="27.7109375" customWidth="1"/>
+    <col min="2" max="2" width="16.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B1" t="s">
+    <row r="1" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B1" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+    </row>
+    <row r="2" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="C2" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B3" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D3" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E3" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F3" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G3" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H3" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I3" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J3" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K3" s="19" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="B4" s="4">
+        <v>6.9511599999999998</v>
+      </c>
+      <c r="C4" s="4">
+        <v>-0.24562</v>
+      </c>
+      <c r="D4" s="4">
+        <v>3.9210000000000002E-2</v>
+      </c>
+      <c r="E4" s="4">
+        <v>0.43924000000000002</v>
+      </c>
+      <c r="F4" s="4">
+        <v>0.27825</v>
+      </c>
+      <c r="G4" s="4">
+        <v>3.2050000000000002E-2</v>
+      </c>
+      <c r="H4" s="4">
+        <v>0.20236999999999999</v>
+      </c>
+      <c r="I4" s="4">
+        <v>-3.7269999999999998E-2</v>
+      </c>
+      <c r="J4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="4">
+        <v>3.8719199999999998</v>
+      </c>
+      <c r="C5" s="4">
+        <v>0.13302</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0.62895000000000001</v>
+      </c>
+      <c r="E5" s="4">
+        <v>0.73277000000000003</v>
+      </c>
+      <c r="F5" s="4">
+        <v>0.15348999999999999</v>
+      </c>
+      <c r="G5" s="4">
+        <v>5.8840000000000003E-2</v>
+      </c>
+      <c r="H5" s="4">
+        <v>9.5780000000000004E-2</v>
+      </c>
+      <c r="I5" s="4">
+        <v>0.16189000000000001</v>
+      </c>
+      <c r="J5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="B6" s="4">
+        <v>1.7949999999999999</v>
+      </c>
+      <c r="C6" s="4">
+        <v>-1.847</v>
+      </c>
+      <c r="D6" s="4">
+        <v>6.2E-2</v>
+      </c>
+      <c r="E6" s="4">
+        <v>0.59899999999999998</v>
+      </c>
+      <c r="F6" s="4">
+        <v>1.8129999999999999</v>
+      </c>
+      <c r="G6" s="4">
+        <v>0.54500000000000004</v>
+      </c>
+      <c r="H6" s="4">
+        <v>2.113</v>
+      </c>
+      <c r="I6" s="4">
+        <v>-0.23</v>
+      </c>
+      <c r="J6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="B7" s="4">
+        <v>8.6999999999999994E-2</v>
+      </c>
+      <c r="C7" s="4">
+        <v>7.9000000000000001E-2</v>
+      </c>
+      <c r="D7" s="4">
+        <v>0.95089999999999997</v>
+      </c>
+      <c r="E7" s="4">
+        <v>0.55530000000000002</v>
+      </c>
+      <c r="F7" s="4">
+        <v>8.4199999999999997E-2</v>
+      </c>
+      <c r="G7" s="4">
+        <v>0.5917</v>
+      </c>
+      <c r="H7" s="4">
+        <v>4.6800000000000001E-2</v>
+      </c>
+      <c r="I7" s="4">
+        <v>0.82020000000000004</v>
+      </c>
+      <c r="J7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="C10" s="4">
+        <v>10.1370118</v>
+      </c>
+      <c r="D10" s="4">
+        <v>4.8961967</v>
+      </c>
+      <c r="E10" s="4">
+        <v>3.1359289000000001</v>
+      </c>
+      <c r="F10" s="4">
+        <v>2.8123459</v>
+      </c>
+      <c r="G10" s="4">
+        <v>12.2622687</v>
+      </c>
+      <c r="H10" s="4">
+        <v>-2.9942400000000001E-2</v>
+      </c>
+      <c r="I10" s="4">
+        <v>-2.9942400000000001E-2</v>
+      </c>
+      <c r="J10" s="4">
+        <v>3.8231956</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="C11" s="4">
+        <v>0.76928872999999998</v>
+      </c>
+      <c r="D11" s="4">
+        <v>3.2674689999999999E-2</v>
+      </c>
+      <c r="E11" s="4">
+        <v>2.9203030000000001E-2</v>
+      </c>
+      <c r="F11" s="4">
+        <v>0.48294925999999999</v>
+      </c>
+      <c r="G11" s="4">
+        <v>1.4311327</v>
+      </c>
+      <c r="H11" s="4">
+        <v>0.17738045</v>
+      </c>
+      <c r="I11" s="4">
+        <v>0.17738045</v>
+      </c>
+      <c r="J11" s="4">
+        <v>1.0960862899999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="4">
+        <v>0.93789999999999996</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>17</v>
       </c>
+      <c r="C15" s="4">
+        <v>0.91720000000000002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" s="8">
+        <v>62.719321999999998</v>
+      </c>
+      <c r="D21" s="4">
+        <v>2.5297200000000002</v>
+      </c>
+      <c r="E21" s="4">
+        <v>2.7429389999999998</v>
+      </c>
+      <c r="F21" s="8">
+        <v>32.915576999999999</v>
+      </c>
+      <c r="G21" s="8">
+        <v>42.47052</v>
+      </c>
+      <c r="H21" s="8">
+        <v>66.018486999999993</v>
+      </c>
+      <c r="I21" s="4">
+        <v>4.9396630000000004</v>
+      </c>
+      <c r="J21" s="4" t="s">
+        <v>63</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:J1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51184CD5-DB38-4929-B698-5856BD2FD366}">
+  <dimension ref="B1:J11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="2:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B1" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+    </row>
+    <row r="2" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="2:10" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="I3" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" s="13" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" s="15">
+        <v>1</v>
+      </c>
+      <c r="D4" s="16">
+        <v>0.06</v>
+      </c>
+      <c r="E4" s="16">
+        <v>0.54</v>
+      </c>
+      <c r="F4" s="15">
+        <v>0.94</v>
+      </c>
+      <c r="G4" s="15">
+        <v>0.8</v>
+      </c>
+      <c r="H4" s="15">
+        <v>0.9</v>
+      </c>
+      <c r="I4" s="16">
+        <v>-0.25</v>
+      </c>
+      <c r="J4" s="16">
+        <v>-0.32</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5" s="16">
+        <v>0.06</v>
+      </c>
+      <c r="D5" s="15">
+        <v>1</v>
+      </c>
+      <c r="E5" s="16">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="F5" s="16">
+        <v>0.16</v>
+      </c>
+      <c r="G5" s="16">
+        <v>-0.2</v>
+      </c>
+      <c r="H5" s="16">
+        <v>-0.02</v>
+      </c>
+      <c r="I5" s="16">
+        <v>-0.33</v>
+      </c>
+      <c r="J5" s="16">
+        <v>-0.48</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="C6" s="16">
+        <v>0.54</v>
+      </c>
+      <c r="D6" s="16">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="E6" s="15">
+        <v>1</v>
+      </c>
+      <c r="F6" s="16">
+        <v>0.61</v>
+      </c>
+      <c r="G6" s="16">
+        <v>0.65</v>
+      </c>
+      <c r="H6" s="16">
+        <v>0.62</v>
+      </c>
+      <c r="I6" s="16">
+        <v>0.18</v>
+      </c>
+      <c r="J6" s="16">
+        <v>-0.51</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="C7" s="15">
+        <v>0.94</v>
+      </c>
+      <c r="D7" s="16">
+        <v>0.16</v>
+      </c>
+      <c r="E7" s="16">
+        <v>0.61</v>
+      </c>
+      <c r="F7" s="15">
+        <v>1</v>
+      </c>
+      <c r="G7" s="15">
+        <v>0.82</v>
+      </c>
+      <c r="H7" s="15">
+        <v>0.91</v>
+      </c>
+      <c r="I7" s="16">
+        <v>-0.11</v>
+      </c>
+      <c r="J7" s="16">
+        <v>-0.48</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="C8" s="15">
+        <v>0.8</v>
+      </c>
+      <c r="D8" s="16">
+        <v>-0.2</v>
+      </c>
+      <c r="E8" s="16">
+        <v>0.65</v>
+      </c>
+      <c r="F8" s="15">
+        <v>0.82</v>
+      </c>
+      <c r="G8" s="15">
+        <v>1</v>
+      </c>
+      <c r="H8" s="15">
+        <v>0.93</v>
+      </c>
+      <c r="I8" s="16">
+        <v>0.31</v>
+      </c>
+      <c r="J8" s="16">
+        <v>-0.36</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="C9" s="15">
+        <v>0.9</v>
+      </c>
+      <c r="D9" s="16">
+        <v>-0.02</v>
+      </c>
+      <c r="E9" s="16">
+        <v>0.62</v>
+      </c>
+      <c r="F9" s="15">
+        <v>0.91</v>
+      </c>
+      <c r="G9" s="15">
+        <v>0.93</v>
+      </c>
+      <c r="H9" s="15">
+        <v>1</v>
+      </c>
+      <c r="I9" s="16">
+        <v>0.19</v>
+      </c>
+      <c r="J9" s="16">
+        <v>-0.51</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="C10" s="16">
+        <v>-0.25</v>
+      </c>
+      <c r="D10" s="16">
+        <v>-0.33</v>
+      </c>
+      <c r="E10" s="16">
+        <v>0.18</v>
+      </c>
+      <c r="F10" s="16">
+        <v>-0.11</v>
+      </c>
+      <c r="G10" s="16">
+        <v>0.31</v>
+      </c>
+      <c r="H10" s="16">
+        <v>0.19</v>
+      </c>
+      <c r="I10" s="15">
+        <v>1</v>
+      </c>
+      <c r="J10" s="16">
+        <v>-0.31</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="C11" s="16">
+        <v>-0.32</v>
+      </c>
+      <c r="D11" s="16">
+        <v>-0.48</v>
+      </c>
+      <c r="E11" s="16">
+        <v>-0.51</v>
+      </c>
+      <c r="F11" s="16">
+        <v>-0.48</v>
+      </c>
+      <c r="G11" s="16">
+        <v>-0.36</v>
+      </c>
+      <c r="H11" s="16">
+        <v>-0.51</v>
+      </c>
+      <c r="I11" s="16">
+        <v>-0.31</v>
+      </c>
+      <c r="J11" s="15">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:J1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C4B8315-90E9-4613-82DC-66D647EC9667}">
+  <dimension ref="B1:J11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M5" sqref="M5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="2:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B1" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+    </row>
+    <row r="2" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="2:10" ht="61.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="F3" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="G3" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="H3" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="I3" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="J3" s="18" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" s="15">
+        <v>1</v>
+      </c>
+      <c r="D4" s="16">
+        <v>0.18</v>
+      </c>
+      <c r="E4" s="16">
+        <v>0.61</v>
+      </c>
+      <c r="F4" s="15">
+        <v>0.97</v>
+      </c>
+      <c r="G4" s="15">
+        <v>0.94</v>
+      </c>
+      <c r="H4" s="15">
+        <v>0.96</v>
+      </c>
+      <c r="I4" s="16">
+        <v>-0.3</v>
+      </c>
+      <c r="J4" s="16">
+        <v>-0.3</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" s="16">
+        <v>0.18</v>
+      </c>
+      <c r="D5" s="15">
+        <v>1</v>
+      </c>
+      <c r="E5" s="16">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="F5" s="16">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="G5" s="16">
+        <v>0.18</v>
+      </c>
+      <c r="H5" s="16">
+        <v>0.25</v>
+      </c>
+      <c r="I5" s="16">
+        <v>-0.33</v>
+      </c>
+      <c r="J5" s="16">
+        <v>-0.33</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="16">
+        <v>0.61</v>
+      </c>
+      <c r="D6" s="16">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="E6" s="15">
+        <v>1</v>
+      </c>
+      <c r="F6" s="16">
+        <v>0.64</v>
+      </c>
+      <c r="G6" s="16">
+        <v>0.73</v>
+      </c>
+      <c r="H6" s="16">
+        <v>0.65</v>
+      </c>
+      <c r="I6" s="16">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="J6" s="16">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" s="15">
+        <v>0.97</v>
+      </c>
+      <c r="D7" s="16">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="E7" s="16">
+        <v>0.64</v>
+      </c>
+      <c r="F7" s="15">
+        <v>1</v>
+      </c>
+      <c r="G7" s="15">
+        <v>0.96</v>
+      </c>
+      <c r="H7" s="15">
+        <v>0.97</v>
+      </c>
+      <c r="I7" s="16">
+        <v>-0.21</v>
+      </c>
+      <c r="J7" s="16">
+        <v>-0.21</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="C8" s="15">
+        <v>0.94</v>
+      </c>
+      <c r="D8" s="16">
+        <v>0.18</v>
+      </c>
+      <c r="E8" s="16">
+        <v>0.73</v>
+      </c>
+      <c r="F8" s="15">
+        <v>0.96</v>
+      </c>
+      <c r="G8" s="15">
+        <v>1</v>
+      </c>
+      <c r="H8" s="15">
+        <v>0.98</v>
+      </c>
+      <c r="I8" s="16">
+        <v>-0.05</v>
+      </c>
+      <c r="J8" s="16">
+        <v>-0.05</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9" s="15">
+        <v>0.96</v>
+      </c>
+      <c r="D9" s="16">
+        <v>0.25</v>
+      </c>
+      <c r="E9" s="16">
+        <v>0.65</v>
+      </c>
+      <c r="F9" s="15">
+        <v>0.97</v>
+      </c>
+      <c r="G9" s="15">
+        <v>0.98</v>
+      </c>
+      <c r="H9" s="15">
+        <v>1</v>
+      </c>
+      <c r="I9" s="16">
+        <v>-0.11</v>
+      </c>
+      <c r="J9" s="16">
+        <v>-0.11</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" s="16">
+        <v>-0.3</v>
+      </c>
+      <c r="D10" s="16">
+        <v>-0.33</v>
+      </c>
+      <c r="E10" s="16">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="F10" s="16">
+        <v>-0.21</v>
+      </c>
+      <c r="G10" s="16">
+        <v>-0.05</v>
+      </c>
+      <c r="H10" s="16">
+        <v>-0.11</v>
+      </c>
+      <c r="I10" s="15">
+        <v>1</v>
+      </c>
+      <c r="J10" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="C11" s="16">
+        <v>-0.3</v>
+      </c>
+      <c r="D11" s="16">
+        <v>-0.33</v>
+      </c>
+      <c r="E11" s="16">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="F11" s="16">
+        <v>-0.21</v>
+      </c>
+      <c r="G11" s="16">
+        <v>-0.05</v>
+      </c>
+      <c r="H11" s="16">
+        <v>-0.11</v>
+      </c>
+      <c r="I11" s="15">
+        <v>1</v>
+      </c>
+      <c r="J11" s="15">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:J1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/regression-results/Regression-table.xlsx
+++ b/regression-results/Regression-table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sifaat\FFC-Forecasting-Study\forecasting-study\regression-results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6576D08-B0D5-4BF4-8EF6-2AF65D9CEE74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE7D5E68-1239-410B-8F64-3E2EF3894452}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="6 vars-Normal" sheetId="3" r:id="rId1"/>
@@ -27,7 +27,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="5">'Correlation-log-vars'!$A:$J</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">'Correlation-nom-vars'!$A:$K</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="79">
   <si>
     <t>X1</t>
   </si>
@@ -129,9 +129,6 @@
     <t>Nitrogen Price per ton</t>
   </si>
   <si>
-    <t>Inp Out Ratio</t>
-  </si>
-  <si>
     <t>N / P Ratio</t>
   </si>
   <si>
@@ -253,18 +250,43 @@
   </si>
   <si>
     <t>Log Transformed Value Correlation Table</t>
+  </si>
+  <si>
+    <t>t - table value</t>
+  </si>
+  <si>
+    <t>Significant / Non Significant</t>
+  </si>
+  <si>
+    <t>Non Significant</t>
+  </si>
+  <si>
+    <t>Significant</t>
+  </si>
+  <si>
+    <t>Confidence Interval (%)</t>
+  </si>
+  <si>
+    <t>Inp to Out Ratio</t>
+  </si>
+  <si>
+    <t>t-table value</t>
+  </si>
+  <si>
+    <t>Variables</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="5">
+  <numFmts count="6">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
     <numFmt numFmtId="166" formatCode="0.0"/>
     <numFmt numFmtId="167" formatCode="0.000000"/>
-    <numFmt numFmtId="172" formatCode="0.00000"/>
+    <numFmt numFmtId="168" formatCode="0.00000"/>
+    <numFmt numFmtId="169" formatCode="0.0%"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -289,18 +311,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
       <b/>
       <sz val="14"/>
       <color theme="1"/>
@@ -308,8 +318,20 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -331,6 +353,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -408,7 +436,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -418,47 +446,46 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -742,34 +769,34 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I20"/>
+  <dimension ref="A1:L23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.5703125" customWidth="1"/>
-    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.85546875" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5546875" customWidth="1"/>
+    <col min="3" max="3" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.88671875" customWidth="1"/>
+    <col min="8" max="8" width="9.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B1" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-    </row>
-    <row r="2" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="18" x14ac:dyDescent="0.35">
+      <c r="B1" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+    </row>
+    <row r="2" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="C2" s="9" t="s">
         <v>29</v>
       </c>
@@ -789,34 +816,34 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="19"/>
-      <c r="B3" s="19" t="s">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" s="11"/>
+      <c r="B3" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="19" t="s">
+      <c r="D3" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="19" t="s">
+      <c r="E3" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="19" t="s">
+      <c r="F3" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="19" t="s">
+      <c r="G3" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="19" t="s">
+      <c r="H3" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="19" t="s">
+      <c r="I3" s="11" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -842,7 +869,7 @@
         <v>5.3950910600000004</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>21</v>
       </c>
@@ -867,8 +894,12 @@
       <c r="H5" s="4">
         <v>2.7128074099999999</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L5">
+        <f>C4/C5</f>
+        <v>-2.7594305020091778</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -894,107 +925,101 @@
         <v>1.9890000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B8" s="4">
         <v>0.20211999999999999</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C8" s="14">
         <v>1.1440000000000001E-2</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D8" s="4">
         <v>0.24762000000000001</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E8" s="4">
         <v>0.27362999999999998</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F8" s="13">
         <v>1.17E-3</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G8" s="4">
         <v>0.80101999999999995</v>
       </c>
-      <c r="H7" s="4">
+      <c r="H8" s="14">
         <v>5.9310000000000002E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>72</v>
+      </c>
+      <c r="B9" s="4"/>
+      <c r="C9" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>75</v>
+      </c>
+      <c r="B10" s="4"/>
+      <c r="C10" s="16">
+        <v>0.99</v>
+      </c>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16">
+        <v>0.99</v>
+      </c>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
         <v>13</v>
-      </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="5">
-        <v>25260.869569999999</v>
-      </c>
-      <c r="D10" s="5">
-        <v>133.78</v>
-      </c>
-      <c r="E10" s="5">
-        <v>23.01</v>
-      </c>
-      <c r="F10" s="5">
-        <v>16.648929800000001</v>
-      </c>
-      <c r="G10" s="5">
-        <v>211561</v>
-      </c>
-      <c r="H10" s="5">
-        <v>45.750175400000003</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="5">
-        <v>28627.372567070001</v>
-      </c>
-      <c r="D11" s="5">
-        <v>4.3487205800000002</v>
-      </c>
-      <c r="E11" s="5">
-        <v>0.67129057000000003</v>
-      </c>
-      <c r="F11" s="5">
-        <v>7.8548224500000003</v>
-      </c>
-      <c r="G11" s="5">
-        <v>441331.52875244</v>
-      </c>
-      <c r="H11" s="5">
-        <v>65.450477980000002</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>14</v>
       </c>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -1004,76 +1029,136 @@
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C13" s="5">
+        <v>25260.869569999999</v>
+      </c>
+      <c r="D13" s="5">
+        <v>133.78</v>
+      </c>
+      <c r="E13" s="5">
+        <v>23.01</v>
+      </c>
+      <c r="F13" s="5">
+        <v>16.648929800000001</v>
+      </c>
+      <c r="G13" s="5">
+        <v>211561</v>
+      </c>
+      <c r="H13" s="5">
+        <v>45.750175400000003</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B14" s="4"/>
-      <c r="C14" s="4">
-        <v>0.89949999999999997</v>
-      </c>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C14" s="5">
+        <v>28627.372567070001</v>
+      </c>
+      <c r="D14" s="5">
+        <v>4.3487205800000002</v>
+      </c>
+      <c r="E14" s="5">
+        <v>0.67129057000000003</v>
+      </c>
+      <c r="F14" s="5">
+        <v>7.8548224500000003</v>
+      </c>
+      <c r="G14" s="5">
+        <v>441331.52875244</v>
+      </c>
+      <c r="H14" s="5">
+        <v>65.450477980000002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B15" s="4"/>
-      <c r="C15" s="4">
-        <v>0.87209999999999999</v>
-      </c>
+      <c r="C15" s="4"/>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4">
+        <v>0.89949999999999997</v>
+      </c>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4">
+        <v>0.87209999999999999</v>
+      </c>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
         <v>23</v>
       </c>
-      <c r="C20" s="8">
+      <c r="C23" s="8">
         <v>10.888798</v>
       </c>
-      <c r="D20" s="4">
+      <c r="D23" s="4">
         <v>1.953373</v>
       </c>
-      <c r="E20" s="4">
+      <c r="E23" s="4">
         <v>2.1071770000000001</v>
       </c>
-      <c r="F20" s="8">
+      <c r="F23" s="8">
         <v>13.923624999999999</v>
       </c>
-      <c r="G20" s="8">
+      <c r="G23" s="8">
         <v>13.713628</v>
       </c>
-      <c r="H20" s="8">
+      <c r="H23" s="8">
         <v>17.392530000000001</v>
       </c>
     </row>
@@ -1092,75 +1177,75 @@
   <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13" customWidth="1"/>
-    <col min="5" max="5" width="10.85546875" customWidth="1"/>
+    <col min="5" max="5" width="10.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B1" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-    </row>
-    <row r="2" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="B1" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+    </row>
+    <row r="2" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="C2" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="E2" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="F2" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="G2" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="H2" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="H2" s="9" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="19"/>
-      <c r="B3" s="19" t="s">
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="11"/>
+      <c r="B3" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="19" t="s">
+      <c r="D3" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="19" t="s">
+      <c r="E3" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="19" t="s">
+      <c r="F3" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="19" t="s">
+      <c r="G3" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="19" t="s">
+      <c r="H3" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="19" t="s">
+      <c r="I3" s="11" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -1186,7 +1271,7 @@
         <v>0.18978</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>21</v>
       </c>
@@ -1212,7 +1297,7 @@
         <v>7.6929999999999998E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -1238,7 +1323,7 @@
         <v>2.4670000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -1264,17 +1349,17 @@
         <v>2.189E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -1297,7 +1382,7 @@
         <v>-2.9942400000000001E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -1320,17 +1405,17 @@
         <v>0.17738045</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>16</v>
       </c>
@@ -1338,7 +1423,7 @@
         <v>0.93769999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -1346,17 +1431,17 @@
         <v>0.92079999999999995</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>23</v>
       </c>
@@ -1390,40 +1475,40 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18F4022F-26AC-46F4-AE21-85FE3561092A}">
-  <dimension ref="A1:K28"/>
+  <dimension ref="A1:K31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L26" sqref="L26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.7109375" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" customWidth="1"/>
-    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.6640625" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B1" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-    </row>
-    <row r="2" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="B1" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+    </row>
+    <row r="2" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="C2" s="9" t="s">
         <v>29</v>
       </c>
@@ -1443,46 +1528,46 @@
         <v>28</v>
       </c>
       <c r="I2" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="J2" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="J2" s="9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="19"/>
-      <c r="B3" s="19" t="s">
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" s="11"/>
+      <c r="B3" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="19" t="s">
+      <c r="D3" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="19" t="s">
+      <c r="E3" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="19" t="s">
+      <c r="F3" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="19" t="s">
+      <c r="G3" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="19" t="s">
+      <c r="H3" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="19" t="s">
+      <c r="I3" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="19" t="s">
+      <c r="J3" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="19" t="s">
+      <c r="K3" s="11" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -1514,7 +1599,7 @@
         <v>-42.618754549999998</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>21</v>
       </c>
@@ -1546,7 +1631,7 @@
         <v>1183.3762295500001</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -1578,191 +1663,253 @@
         <v>-3.5999999999999997E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>77</v>
+      </c>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="2"/>
+    </row>
+    <row r="8" spans="1:11" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B8" s="4">
         <v>0.74927999999999995</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C8" s="4">
         <v>6.4299999999999996E-2</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D8" s="4">
         <v>0.53439999999999999</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E8" s="4">
         <v>0.26068999999999998</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F8" s="3">
         <v>2.0500000000000002E-3</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G8" s="4">
         <v>0.89664999999999995</v>
       </c>
-      <c r="H7" s="2">
+      <c r="H8" s="5">
         <v>9.1039999999999996E-2</v>
       </c>
-      <c r="I7" s="4">
+      <c r="I8" s="4">
         <v>0.27944999999999998</v>
       </c>
-      <c r="J7" s="4">
+      <c r="J8" s="4">
         <v>0.97162999999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>72</v>
+      </c>
+      <c r="B9" s="4"/>
+      <c r="C9" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>75</v>
+      </c>
+      <c r="B10" s="4"/>
+      <c r="C10" s="15">
+        <v>0.9</v>
+      </c>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="15">
+        <v>0.99</v>
+      </c>
+      <c r="G10" s="16"/>
+      <c r="H10" s="15">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="10">
+      <c r="C13" s="10">
         <v>25260.869569999999</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D13" s="4">
         <v>133.78</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E13" s="4">
         <v>23.01</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F13" s="4">
         <v>16.648929800000001</v>
       </c>
-      <c r="G10" s="10">
+      <c r="G13" s="10">
         <v>211561</v>
       </c>
-      <c r="H10" s="4">
+      <c r="H13" s="4">
         <v>45.750175400000003</v>
       </c>
-      <c r="I10" s="4">
+      <c r="I13" s="4">
         <v>0.37596190000000002</v>
       </c>
-      <c r="J10" s="4">
+      <c r="J13" s="4">
         <v>0.97050139999999996</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="10">
+      <c r="C14" s="10">
         <v>28627.372567070001</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D14" s="4">
         <v>4.3487205800000002</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E14" s="4">
         <v>0.67129057000000003</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F14" s="4">
         <v>7.8548224500000003</v>
       </c>
-      <c r="G11" s="10">
+      <c r="G14" s="10">
         <v>441331.52875244</v>
       </c>
-      <c r="H11" s="4">
+      <c r="H14" s="4">
         <v>65.450477980000002</v>
       </c>
-      <c r="I11" s="4">
+      <c r="I14" s="4">
         <v>8.0331959999999994E-2</v>
       </c>
-      <c r="J11" s="4">
+      <c r="J14" s="4">
         <v>0.15834402</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C17" s="4">
         <v>0.90529999999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C18" s="4">
         <v>0.86750000000000005</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
         <v>23</v>
       </c>
-      <c r="C21" s="21">
+      <c r="C24" s="12">
         <v>85.279392999999999</v>
       </c>
-      <c r="D21" s="22">
+      <c r="D24" s="4">
         <v>2.6439520000000001</v>
       </c>
-      <c r="E21" s="22">
+      <c r="E24" s="4">
         <v>2.5662560000000001</v>
       </c>
-      <c r="F21" s="23">
+      <c r="F24" s="8">
         <v>15.824790999999999</v>
       </c>
-      <c r="G21" s="23">
+      <c r="G24" s="8">
         <v>20.658206</v>
       </c>
-      <c r="H21" s="23">
+      <c r="H24" s="8">
         <v>72.940685999999999</v>
       </c>
-      <c r="I21" s="23">
+      <c r="I24" s="8">
         <v>16.618335999999999</v>
       </c>
-      <c r="J21" s="22">
+      <c r="J24" s="4">
         <v>4.813326</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C22" s="1"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C23" s="1"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C24" s="1"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C25" s="1"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C26" s="1"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C27" s="1"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C28" s="1"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C29" s="1"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C30" s="1"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C31" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1775,90 +1922,90 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K21"/>
+  <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+      <selection activeCell="C12" sqref="C12:J13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.7109375" customWidth="1"/>
-    <col min="2" max="2" width="16.85546875" customWidth="1"/>
+    <col min="1" max="1" width="27.6640625" customWidth="1"/>
+    <col min="2" max="2" width="16.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B1" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-    </row>
-    <row r="2" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="B1" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+    </row>
+    <row r="2" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="C2" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="E2" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="F2" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="G2" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="H2" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="H2" s="9" t="s">
-        <v>37</v>
-      </c>
       <c r="I2" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="J2" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="J2" s="9" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B3" s="19" t="s">
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B3" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="19" t="s">
+      <c r="D3" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="19" t="s">
+      <c r="E3" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="19" t="s">
+      <c r="F3" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="19" t="s">
+      <c r="G3" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="19" t="s">
+      <c r="H3" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="19" t="s">
+      <c r="I3" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="19" t="s">
+      <c r="J3" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="19" t="s">
+      <c r="K3" s="11" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -1887,10 +2034,10 @@
         <v>-3.7269999999999998E-2</v>
       </c>
       <c r="J4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>21</v>
       </c>
@@ -1919,10 +2066,10 @@
         <v>0.16189000000000001</v>
       </c>
       <c r="J5" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -1951,10 +2098,10 @@
         <v>-0.23</v>
       </c>
       <c r="J6" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -1983,140 +2130,160 @@
         <v>0.82020000000000004</v>
       </c>
       <c r="J7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="4">
+        <v>10.1370118</v>
+      </c>
+      <c r="D12" s="4">
+        <v>4.8961967</v>
+      </c>
+      <c r="E12" s="4">
+        <v>3.1359289000000001</v>
+      </c>
+      <c r="F12" s="4">
+        <v>2.8123459</v>
+      </c>
+      <c r="G12" s="4">
+        <v>12.2622687</v>
+      </c>
+      <c r="H12" s="4">
+        <v>-2.9942400000000001E-2</v>
+      </c>
+      <c r="I12" s="4">
+        <v>-2.9942400000000001E-2</v>
+      </c>
+      <c r="J12" s="4">
+        <v>3.8231956</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="4">
+        <v>0.76928872999999998</v>
+      </c>
+      <c r="D13" s="4">
+        <v>3.2674689999999999E-2</v>
+      </c>
+      <c r="E13" s="4">
+        <v>2.9203030000000001E-2</v>
+      </c>
+      <c r="F13" s="4">
+        <v>0.48294925999999999</v>
+      </c>
+      <c r="G13" s="4">
+        <v>1.4311327</v>
+      </c>
+      <c r="H13" s="4">
+        <v>0.17738045</v>
+      </c>
+      <c r="I13" s="4">
+        <v>0.17738045</v>
+      </c>
+      <c r="J13" s="4">
+        <v>1.0960862899999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="4">
+        <v>0.93789999999999996</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="4">
+        <v>0.91720000000000002</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="4">
-        <v>10.1370118</v>
-      </c>
-      <c r="D10" s="4">
-        <v>4.8961967</v>
-      </c>
-      <c r="E10" s="4">
-        <v>3.1359289000000001</v>
-      </c>
-      <c r="F10" s="4">
-        <v>2.8123459</v>
-      </c>
-      <c r="G10" s="4">
-        <v>12.2622687</v>
-      </c>
-      <c r="H10" s="4">
-        <v>-2.9942400000000001E-2</v>
-      </c>
-      <c r="I10" s="4">
-        <v>-2.9942400000000001E-2</v>
-      </c>
-      <c r="J10" s="4">
-        <v>3.8231956</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="4">
-        <v>0.76928872999999998</v>
-      </c>
-      <c r="D11" s="4">
-        <v>3.2674689999999999E-2</v>
-      </c>
-      <c r="E11" s="4">
-        <v>2.9203030000000001E-2</v>
-      </c>
-      <c r="F11" s="4">
-        <v>0.48294925999999999</v>
-      </c>
-      <c r="G11" s="4">
-        <v>1.4311327</v>
-      </c>
-      <c r="H11" s="4">
-        <v>0.17738045</v>
-      </c>
-      <c r="I11" s="4">
-        <v>0.17738045</v>
-      </c>
-      <c r="J11" s="4">
-        <v>1.0960862899999999</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" s="4">
-        <v>0.93789999999999996</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>17</v>
-      </c>
-      <c r="C15" s="4">
-        <v>0.91720000000000002</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
         <v>23</v>
       </c>
-      <c r="C21" s="8">
+      <c r="C23" s="8">
         <v>62.719321999999998</v>
       </c>
-      <c r="D21" s="4">
+      <c r="D23" s="4">
         <v>2.5297200000000002</v>
       </c>
-      <c r="E21" s="4">
+      <c r="E23" s="4">
         <v>2.7429389999999998</v>
       </c>
-      <c r="F21" s="8">
+      <c r="F23" s="8">
         <v>32.915576999999999</v>
       </c>
-      <c r="G21" s="8">
+      <c r="G23" s="8">
         <v>42.47052</v>
       </c>
-      <c r="H21" s="8">
+      <c r="H23" s="8">
         <v>66.018486999999993</v>
       </c>
-      <c r="I21" s="4">
+      <c r="I23" s="4">
         <v>4.9396630000000004</v>
       </c>
-      <c r="J21" s="4" t="s">
-        <v>63</v>
+      <c r="J23" s="4" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -2132,284 +2299,293 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51184CD5-DB38-4929-B698-5856BD2FD366}">
   <dimension ref="B1:J11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="15" customWidth="1"/>
+    <col min="4" max="4" width="13.109375" customWidth="1"/>
+    <col min="5" max="5" width="14" customWidth="1"/>
+    <col min="6" max="6" width="13.77734375" customWidth="1"/>
+    <col min="7" max="7" width="13.109375" customWidth="1"/>
+    <col min="8" max="8" width="13" customWidth="1"/>
+    <col min="9" max="9" width="14.109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B1" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-    </row>
-    <row r="2" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="2:10" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="C3" s="12" t="s">
+    <row r="1" spans="2:10" ht="18" x14ac:dyDescent="0.35">
+      <c r="B1" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+    </row>
+    <row r="2" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="2:10" ht="73.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="D3" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="E3" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="F3" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="G3" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="G3" s="12" t="s">
+      <c r="H3" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="I3" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="H3" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="I3" s="12" t="s">
+      <c r="J3" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="J3" s="13" t="s">
+    </row>
+    <row r="4" spans="2:10" ht="55.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" s="21">
+        <v>1</v>
+      </c>
+      <c r="D4" s="22">
+        <v>0.06</v>
+      </c>
+      <c r="E4" s="22">
+        <v>0.54</v>
+      </c>
+      <c r="F4" s="21">
+        <v>0.94</v>
+      </c>
+      <c r="G4" s="21">
+        <v>0.8</v>
+      </c>
+      <c r="H4" s="21">
+        <v>0.9</v>
+      </c>
+      <c r="I4" s="22">
+        <v>-0.25</v>
+      </c>
+      <c r="J4" s="22">
+        <v>-0.32</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5" s="22">
+        <v>0.06</v>
+      </c>
+      <c r="D5" s="21">
+        <v>1</v>
+      </c>
+      <c r="E5" s="22">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="F5" s="22">
+        <v>0.16</v>
+      </c>
+      <c r="G5" s="22">
+        <v>-0.2</v>
+      </c>
+      <c r="H5" s="22">
+        <v>-0.02</v>
+      </c>
+      <c r="I5" s="22">
+        <v>-0.33</v>
+      </c>
+      <c r="J5" s="22">
+        <v>-0.48</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" ht="54.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="C6" s="22">
+        <v>0.54</v>
+      </c>
+      <c r="D6" s="22">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="E6" s="21">
+        <v>1</v>
+      </c>
+      <c r="F6" s="22">
+        <v>0.61</v>
+      </c>
+      <c r="G6" s="22">
+        <v>0.65</v>
+      </c>
+      <c r="H6" s="22">
+        <v>0.62</v>
+      </c>
+      <c r="I6" s="22">
+        <v>0.18</v>
+      </c>
+      <c r="J6" s="22">
+        <v>-0.51</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="C7" s="21">
+        <v>0.94</v>
+      </c>
+      <c r="D7" s="22">
+        <v>0.16</v>
+      </c>
+      <c r="E7" s="22">
+        <v>0.61</v>
+      </c>
+      <c r="F7" s="21">
+        <v>1</v>
+      </c>
+      <c r="G7" s="21">
+        <v>0.82</v>
+      </c>
+      <c r="H7" s="21">
+        <v>0.91</v>
+      </c>
+      <c r="I7" s="22">
+        <v>-0.11</v>
+      </c>
+      <c r="J7" s="22">
+        <v>-0.48</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" ht="54.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="C8" s="21">
+        <v>0.8</v>
+      </c>
+      <c r="D8" s="22">
+        <v>-0.2</v>
+      </c>
+      <c r="E8" s="22">
+        <v>0.65</v>
+      </c>
+      <c r="F8" s="21">
+        <v>0.82</v>
+      </c>
+      <c r="G8" s="21">
+        <v>1</v>
+      </c>
+      <c r="H8" s="21">
+        <v>0.93</v>
+      </c>
+      <c r="I8" s="22">
+        <v>0.31</v>
+      </c>
+      <c r="J8" s="22">
+        <v>-0.36</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="20" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="4" spans="2:10" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="C4" s="15">
+      <c r="C9" s="21">
+        <v>0.9</v>
+      </c>
+      <c r="D9" s="22">
+        <v>-0.02</v>
+      </c>
+      <c r="E9" s="22">
+        <v>0.62</v>
+      </c>
+      <c r="F9" s="21">
+        <v>0.91</v>
+      </c>
+      <c r="G9" s="21">
+        <v>0.93</v>
+      </c>
+      <c r="H9" s="21">
         <v>1</v>
       </c>
-      <c r="D4" s="16">
-        <v>0.06</v>
-      </c>
-      <c r="E4" s="16">
-        <v>0.54</v>
-      </c>
-      <c r="F4" s="15">
-        <v>0.94</v>
-      </c>
-      <c r="G4" s="15">
-        <v>0.8</v>
-      </c>
-      <c r="H4" s="15">
-        <v>0.9</v>
-      </c>
-      <c r="I4" s="16">
+      <c r="I9" s="22">
+        <v>0.19</v>
+      </c>
+      <c r="J9" s="22">
+        <v>-0.51</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="C10" s="22">
         <v>-0.25</v>
       </c>
-      <c r="J4" s="16">
+      <c r="D10" s="22">
+        <v>-0.33</v>
+      </c>
+      <c r="E10" s="22">
+        <v>0.18</v>
+      </c>
+      <c r="F10" s="22">
+        <v>-0.11</v>
+      </c>
+      <c r="G10" s="22">
+        <v>0.31</v>
+      </c>
+      <c r="H10" s="22">
+        <v>0.19</v>
+      </c>
+      <c r="I10" s="21">
+        <v>1</v>
+      </c>
+      <c r="J10" s="22">
+        <v>-0.31</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="C11" s="22">
         <v>-0.32</v>
       </c>
-    </row>
-    <row r="5" spans="2:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="C5" s="16">
-        <v>0.06</v>
-      </c>
-      <c r="D5" s="15">
-        <v>1</v>
-      </c>
-      <c r="E5" s="16">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="F5" s="16">
-        <v>0.16</v>
-      </c>
-      <c r="G5" s="16">
-        <v>-0.2</v>
-      </c>
-      <c r="H5" s="16">
-        <v>-0.02</v>
-      </c>
-      <c r="I5" s="16">
-        <v>-0.33</v>
-      </c>
-      <c r="J5" s="16">
+      <c r="D11" s="22">
         <v>-0.48</v>
       </c>
-    </row>
-    <row r="6" spans="2:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="C6" s="16">
-        <v>0.54</v>
-      </c>
-      <c r="D6" s="16">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="E6" s="15">
-        <v>1</v>
-      </c>
-      <c r="F6" s="16">
-        <v>0.61</v>
-      </c>
-      <c r="G6" s="16">
-        <v>0.65</v>
-      </c>
-      <c r="H6" s="16">
-        <v>0.62</v>
-      </c>
-      <c r="I6" s="16">
-        <v>0.18</v>
-      </c>
-      <c r="J6" s="16">
+      <c r="E11" s="22">
         <v>-0.51</v>
       </c>
-    </row>
-    <row r="7" spans="2:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="C7" s="15">
-        <v>0.94</v>
-      </c>
-      <c r="D7" s="16">
-        <v>0.16</v>
-      </c>
-      <c r="E7" s="16">
-        <v>0.61</v>
-      </c>
-      <c r="F7" s="15">
-        <v>1</v>
-      </c>
-      <c r="G7" s="15">
-        <v>0.82</v>
-      </c>
-      <c r="H7" s="15">
-        <v>0.91</v>
-      </c>
-      <c r="I7" s="16">
-        <v>-0.11</v>
-      </c>
-      <c r="J7" s="16">
+      <c r="F11" s="22">
         <v>-0.48</v>
       </c>
-    </row>
-    <row r="8" spans="2:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="C8" s="15">
-        <v>0.8</v>
-      </c>
-      <c r="D8" s="16">
-        <v>-0.2</v>
-      </c>
-      <c r="E8" s="16">
-        <v>0.65</v>
-      </c>
-      <c r="F8" s="15">
-        <v>0.82</v>
-      </c>
-      <c r="G8" s="15">
-        <v>1</v>
-      </c>
-      <c r="H8" s="15">
-        <v>0.93</v>
-      </c>
-      <c r="I8" s="16">
-        <v>0.31</v>
-      </c>
-      <c r="J8" s="16">
+      <c r="G11" s="22">
         <v>-0.36</v>
       </c>
-    </row>
-    <row r="9" spans="2:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="C9" s="15">
-        <v>0.9</v>
-      </c>
-      <c r="D9" s="16">
-        <v>-0.02</v>
-      </c>
-      <c r="E9" s="16">
-        <v>0.62</v>
-      </c>
-      <c r="F9" s="15">
-        <v>0.91</v>
-      </c>
-      <c r="G9" s="15">
-        <v>0.93</v>
-      </c>
-      <c r="H9" s="15">
-        <v>1</v>
-      </c>
-      <c r="I9" s="16">
-        <v>0.19</v>
-      </c>
-      <c r="J9" s="16">
+      <c r="H11" s="22">
         <v>-0.51</v>
       </c>
-    </row>
-    <row r="10" spans="2:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="C10" s="16">
-        <v>-0.25</v>
-      </c>
-      <c r="D10" s="16">
-        <v>-0.33</v>
-      </c>
-      <c r="E10" s="16">
-        <v>0.18</v>
-      </c>
-      <c r="F10" s="16">
-        <v>-0.11</v>
-      </c>
-      <c r="G10" s="16">
-        <v>0.31</v>
-      </c>
-      <c r="H10" s="16">
-        <v>0.19</v>
-      </c>
-      <c r="I10" s="15">
-        <v>1</v>
-      </c>
-      <c r="J10" s="16">
+      <c r="I11" s="22">
         <v>-0.31</v>
       </c>
-    </row>
-    <row r="11" spans="2:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="C11" s="16">
-        <v>-0.32</v>
-      </c>
-      <c r="D11" s="16">
-        <v>-0.48</v>
-      </c>
-      <c r="E11" s="16">
-        <v>-0.51</v>
-      </c>
-      <c r="F11" s="16">
-        <v>-0.48</v>
-      </c>
-      <c r="G11" s="16">
-        <v>-0.36</v>
-      </c>
-      <c r="H11" s="16">
-        <v>-0.51</v>
-      </c>
-      <c r="I11" s="16">
-        <v>-0.31</v>
-      </c>
-      <c r="J11" s="15">
+      <c r="J11" s="21">
         <v>1</v>
       </c>
     </row>
@@ -2427,283 +2603,291 @@
   <dimension ref="B1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="14" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" customWidth="1"/>
+    <col min="4" max="4" width="12" customWidth="1"/>
+    <col min="5" max="5" width="11.77734375" customWidth="1"/>
+    <col min="6" max="6" width="13.88671875" customWidth="1"/>
+    <col min="7" max="8" width="13.109375" customWidth="1"/>
+    <col min="9" max="9" width="11.5546875" customWidth="1"/>
+    <col min="10" max="10" width="12.77734375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B1" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-    </row>
-    <row r="2" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="2:10" ht="61.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="11" t="s">
+    <row r="1" spans="2:10" ht="18" x14ac:dyDescent="0.35">
+      <c r="B1" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+    </row>
+    <row r="2" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="2:10" ht="73.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="C3" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="D3" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="E3" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="E3" s="17" t="s">
+      <c r="F3" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="F3" s="17" t="s">
+      <c r="G3" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="G3" s="17" t="s">
+      <c r="H3" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="H3" s="17" t="s">
+      <c r="I3" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="I3" s="17" t="s">
+      <c r="J3" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="J3" s="18" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="4" spans="2:10" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="14" t="s">
+    </row>
+    <row r="4" spans="2:10" ht="55.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" s="21">
+        <v>1</v>
+      </c>
+      <c r="D4" s="22">
+        <v>0.18</v>
+      </c>
+      <c r="E4" s="22">
+        <v>0.61</v>
+      </c>
+      <c r="F4" s="21">
+        <v>0.97</v>
+      </c>
+      <c r="G4" s="21">
+        <v>0.94</v>
+      </c>
+      <c r="H4" s="21">
+        <v>0.96</v>
+      </c>
+      <c r="I4" s="23"/>
+      <c r="J4" s="22">
+        <v>-0.38</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="C4" s="15">
+      <c r="C5" s="22">
+        <v>0.18</v>
+      </c>
+      <c r="D5" s="21">
         <v>1</v>
       </c>
-      <c r="D4" s="16">
+      <c r="E5" s="22">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="F5" s="22">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="G5" s="22">
         <v>0.18</v>
       </c>
-      <c r="E4" s="16">
+      <c r="H5" s="22">
+        <v>0.25</v>
+      </c>
+      <c r="I5" s="22">
+        <v>-0.33</v>
+      </c>
+      <c r="J5" s="22">
+        <v>-0.43</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" ht="54.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" s="22">
         <v>0.61</v>
       </c>
-      <c r="F4" s="15">
+      <c r="D6" s="22">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="E6" s="21">
+        <v>1</v>
+      </c>
+      <c r="F6" s="22">
+        <v>0.64</v>
+      </c>
+      <c r="G6" s="22">
+        <v>0.73</v>
+      </c>
+      <c r="H6" s="22">
+        <v>0.65</v>
+      </c>
+      <c r="I6" s="22">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="J6" s="22">
+        <v>-0.51</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" s="21">
         <v>0.97</v>
       </c>
-      <c r="G4" s="15">
+      <c r="D7" s="22">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="E7" s="22">
+        <v>0.64</v>
+      </c>
+      <c r="F7" s="21">
+        <v>1</v>
+      </c>
+      <c r="G7" s="21">
+        <v>0.96</v>
+      </c>
+      <c r="H7" s="21">
+        <v>0.97</v>
+      </c>
+      <c r="I7" s="22">
+        <v>-0.21</v>
+      </c>
+      <c r="J7" s="22">
+        <v>-0.49</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" ht="54.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="C8" s="21">
         <v>0.94</v>
       </c>
-      <c r="H4" s="15">
+      <c r="D8" s="22">
+        <v>0.18</v>
+      </c>
+      <c r="E8" s="22">
+        <v>0.73</v>
+      </c>
+      <c r="F8" s="21">
         <v>0.96</v>
       </c>
-      <c r="I4" s="16">
+      <c r="G8" s="21">
+        <v>1</v>
+      </c>
+      <c r="H8" s="21">
+        <v>0.98</v>
+      </c>
+      <c r="I8" s="22">
+        <v>-0.05</v>
+      </c>
+      <c r="J8" s="22">
+        <v>-0.48</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9" s="21">
+        <v>0.96</v>
+      </c>
+      <c r="D9" s="22">
+        <v>0.25</v>
+      </c>
+      <c r="E9" s="22">
+        <v>0.65</v>
+      </c>
+      <c r="F9" s="21">
+        <v>0.97</v>
+      </c>
+      <c r="G9" s="21">
+        <v>0.98</v>
+      </c>
+      <c r="H9" s="21">
+        <v>1</v>
+      </c>
+      <c r="I9" s="22">
+        <v>-0.11</v>
+      </c>
+      <c r="J9" s="22">
+        <v>-0.53</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" s="22">
         <v>-0.3</v>
       </c>
-      <c r="J4" s="16">
+      <c r="D10" s="22">
+        <v>-0.33</v>
+      </c>
+      <c r="E10" s="22">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="F10" s="22">
+        <v>-0.21</v>
+      </c>
+      <c r="G10" s="22">
+        <v>-0.05</v>
+      </c>
+      <c r="H10" s="22">
+        <v>-0.11</v>
+      </c>
+      <c r="I10" s="21">
+        <v>1</v>
+      </c>
+      <c r="J10" s="22">
         <v>-0.3</v>
       </c>
     </row>
-    <row r="5" spans="2:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="C5" s="16">
-        <v>0.18</v>
-      </c>
-      <c r="D5" s="15">
-        <v>1</v>
-      </c>
-      <c r="E5" s="16">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="F5" s="16">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="G5" s="16">
-        <v>0.18</v>
-      </c>
-      <c r="H5" s="16">
-        <v>0.25</v>
-      </c>
-      <c r="I5" s="16">
-        <v>-0.33</v>
-      </c>
-      <c r="J5" s="16">
-        <v>-0.33</v>
-      </c>
-    </row>
-    <row r="6" spans="2:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="C6" s="16">
-        <v>0.61</v>
-      </c>
-      <c r="D6" s="16">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="E6" s="15">
-        <v>1</v>
-      </c>
-      <c r="F6" s="16">
-        <v>0.64</v>
-      </c>
-      <c r="G6" s="16">
-        <v>0.73</v>
-      </c>
-      <c r="H6" s="16">
-        <v>0.65</v>
-      </c>
-      <c r="I6" s="16">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="J6" s="16">
-        <v>0.14000000000000001</v>
-      </c>
-    </row>
-    <row r="7" spans="2:10" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="C7" s="15">
-        <v>0.97</v>
-      </c>
-      <c r="D7" s="16">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="E7" s="16">
-        <v>0.64</v>
-      </c>
-      <c r="F7" s="15">
-        <v>1</v>
-      </c>
-      <c r="G7" s="15">
-        <v>0.96</v>
-      </c>
-      <c r="H7" s="15">
-        <v>0.97</v>
-      </c>
-      <c r="I7" s="16">
-        <v>-0.21</v>
-      </c>
-      <c r="J7" s="16">
-        <v>-0.21</v>
-      </c>
-    </row>
-    <row r="8" spans="2:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="C8" s="15">
-        <v>0.94</v>
-      </c>
-      <c r="D8" s="16">
-        <v>0.18</v>
-      </c>
-      <c r="E8" s="16">
-        <v>0.73</v>
-      </c>
-      <c r="F8" s="15">
-        <v>0.96</v>
-      </c>
-      <c r="G8" s="15">
-        <v>1</v>
-      </c>
-      <c r="H8" s="15">
-        <v>0.98</v>
-      </c>
-      <c r="I8" s="16">
-        <v>-0.05</v>
-      </c>
-      <c r="J8" s="16">
-        <v>-0.05</v>
-      </c>
-    </row>
-    <row r="9" spans="2:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="C9" s="15">
-        <v>0.96</v>
-      </c>
-      <c r="D9" s="16">
-        <v>0.25</v>
-      </c>
-      <c r="E9" s="16">
-        <v>0.65</v>
-      </c>
-      <c r="F9" s="15">
-        <v>0.97</v>
-      </c>
-      <c r="G9" s="15">
-        <v>0.98</v>
-      </c>
-      <c r="H9" s="15">
-        <v>1</v>
-      </c>
-      <c r="I9" s="16">
-        <v>-0.11</v>
-      </c>
-      <c r="J9" s="16">
-        <v>-0.11</v>
-      </c>
-    </row>
-    <row r="10" spans="2:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="14" t="s">
+    <row r="11" spans="2:10" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="C10" s="16">
+      <c r="C11" s="22">
+        <v>-0.38</v>
+      </c>
+      <c r="D11" s="22">
+        <v>-0.43</v>
+      </c>
+      <c r="E11" s="22">
+        <v>-0.51</v>
+      </c>
+      <c r="F11" s="22">
+        <v>-0.49</v>
+      </c>
+      <c r="G11" s="22">
+        <v>-0.48</v>
+      </c>
+      <c r="H11" s="22">
+        <v>-0.53</v>
+      </c>
+      <c r="I11" s="22">
         <v>-0.3</v>
       </c>
-      <c r="D10" s="16">
-        <v>-0.33</v>
-      </c>
-      <c r="E10" s="16">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="F10" s="16">
-        <v>-0.21</v>
-      </c>
-      <c r="G10" s="16">
-        <v>-0.05</v>
-      </c>
-      <c r="H10" s="16">
-        <v>-0.11</v>
-      </c>
-      <c r="I10" s="15">
-        <v>1</v>
-      </c>
-      <c r="J10" s="15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="2:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="C11" s="16">
-        <v>-0.3</v>
-      </c>
-      <c r="D11" s="16">
-        <v>-0.33</v>
-      </c>
-      <c r="E11" s="16">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="F11" s="16">
-        <v>-0.21</v>
-      </c>
-      <c r="G11" s="16">
-        <v>-0.05</v>
-      </c>
-      <c r="H11" s="16">
-        <v>-0.11</v>
-      </c>
-      <c r="I11" s="15">
-        <v>1</v>
-      </c>
-      <c r="J11" s="15">
+      <c r="J11" s="21">
         <v>1</v>
       </c>
     </row>
